--- a/AMECO_Potential_GDP.xlsx
+++ b/AMECO_Potential_GDP.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timjascheck/Desktop/Inflationsprojekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Jascheck\Documents\GitHub\Quaterly-Output-Gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61F2D90-557B-FB4F-AB2D-18B66CBCD70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C2D1C-A4E1-4023-8A72-DC3E61AA354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="3500" windowWidth="16000" windowHeight="11500" activeTab="1" xr2:uid="{71F0E9B6-26DC-284E-910A-F3EA1949FBD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{71F0E9B6-26DC-284E-910A-F3EA1949FBD4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Potential" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Description" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Gross domestic product at 2015 reference levels; Mrd EURO-DEM (AMECO)</t>
   </si>
   <si>
-    <t>Gross domestic product at 2015 reference levels; Mrd EURO-DEM (Sum of four Quarters, Destatis)</t>
-  </si>
-  <si>
     <t>Potential GDP (Ameco)</t>
   </si>
   <si>
@@ -67,13 +64,22 @@
   </si>
   <si>
     <t>Real GDP (Destatis)</t>
+  </si>
+  <si>
+    <t>Gross domestic product at 2015 reference levels; Mrd EURO-DEM (Destatis)</t>
+  </si>
+  <si>
+    <t>Own Calculations: Sum of all four Quarters</t>
+  </si>
+  <si>
+    <t>https://www-genesis.destatis.de/genesis/online?operation=result&amp;code=81000-0002&amp;deep=true#abreadcrumb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,6 +91,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,16 +125,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,26 +470,31 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1991</v>
       </c>
@@ -488,7 +508,7 @@
         <v>2225.9070000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1992</v>
       </c>
@@ -502,7 +522,7 @@
         <v>2259.27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1993</v>
       </c>
@@ -516,7 +536,7 @@
         <v>2236.8760000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1994</v>
       </c>
@@ -530,7 +550,7 @@
         <v>2292.105</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1995</v>
       </c>
@@ -544,7 +564,7 @@
         <v>2328.9479999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1996</v>
       </c>
@@ -558,7 +578,7 @@
         <v>2348.77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1997</v>
       </c>
@@ -572,7 +592,7 @@
         <v>2392.4979999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1998</v>
       </c>
@@ -586,7 +606,7 @@
         <v>2435.4690000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1999</v>
       </c>
@@ -600,7 +620,7 @@
         <v>2478.0619999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -614,7 +634,7 @@
         <v>2555.8360000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2001</v>
       </c>
@@ -628,7 +648,7 @@
         <v>2602.0620000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -642,7 +662,7 @@
         <v>2597.8240000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2003</v>
       </c>
@@ -656,7 +676,7 @@
         <v>2579.2890000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2004</v>
       </c>
@@ -670,7 +690,7 @@
         <v>2597.4459999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2005</v>
       </c>
@@ -684,7 +704,7 @@
         <v>2620.8989999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2006</v>
       </c>
@@ -698,7 +718,7 @@
         <v>2725.681</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -712,7 +732,7 @@
         <v>2809.8090000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2008</v>
       </c>
@@ -726,7 +746,7 @@
         <v>2829.1009999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2009</v>
       </c>
@@ -740,7 +760,7 @@
         <v>2669.4690000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2010</v>
       </c>
@@ -754,7 +774,7 @@
         <v>2777.4279999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2011</v>
       </c>
@@ -768,7 +788,7 @@
         <v>2888.2629999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2012</v>
       </c>
@@ -782,7 +802,7 @@
         <v>2906.116</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2013</v>
       </c>
@@ -796,7 +816,7 @@
         <v>2922.08</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2014</v>
       </c>
@@ -810,7 +830,7 @@
         <v>2986.5369999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -824,7 +844,7 @@
         <v>3023.6080000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2016</v>
       </c>
@@ -838,7 +858,7 @@
         <v>3088.3689999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2017</v>
       </c>
@@ -852,7 +872,7 @@
         <v>3180.5159999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -866,7 +886,7 @@
         <v>3212.4409999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -880,7 +900,7 @@
         <v>3247.9230000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2020</v>
       </c>
@@ -894,7 +914,7 @@
         <v>3111.5940000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2021</v>
       </c>
@@ -908,7 +928,7 @@
         <v>3208.81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -922,7 +942,7 @@
         <v>3269.1819999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2023</v>
       </c>
@@ -936,7 +956,7 @@
         <v>3269.2579999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2024</v>
       </c>
@@ -947,7 +967,7 @@
         <v>3269.11</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2025</v>
       </c>
@@ -958,30 +978,30 @@
         <v>3302.2629999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
     </row>
   </sheetData>
@@ -991,46 +1011,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B48295D-AFB4-0047-BCDC-B5BED8EEACE5}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" location="gross-domestic-product-income-approach-labour-costs" xr:uid="{9FE66998-4DAE-6A44-B33B-07F8E92B4750}"/>
+    <hyperlink ref="B3" r:id="rId1" location="gross-domestic-product-income-approach-labour-costs" xr:uid="{9FE66998-4DAE-6A44-B33B-07F8E92B4750}"/>
+    <hyperlink ref="B8" r:id="rId2" location="abreadcrumb" xr:uid="{5F2672CA-8765-43C3-AF65-7EC5799D7693}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/AMECO_Potential_GDP.xlsx
+++ b/AMECO_Potential_GDP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Jascheck\Documents\GitHub\Quaterly-Output-Gap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timjascheck/Desktop/Quaterly-Output-Gap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C2D1C-A4E1-4023-8A72-DC3E61AA354C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0DCEDD-C45D-A94F-86FD-2A19B5DBF4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{71F0E9B6-26DC-284E-910A-F3EA1949FBD4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27720" windowHeight="15840" activeTab="1" xr2:uid="{71F0E9B6-26DC-284E-910A-F3EA1949FBD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -134,8 +134,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,14 +473,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1991</v>
       </c>
@@ -508,7 +508,7 @@
         <v>2225.9070000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1992</v>
       </c>
@@ -522,7 +522,7 @@
         <v>2259.27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1993</v>
       </c>
@@ -536,7 +536,7 @@
         <v>2236.8760000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1994</v>
       </c>
@@ -550,7 +550,7 @@
         <v>2292.105</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1995</v>
       </c>
@@ -564,7 +564,7 @@
         <v>2328.9479999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1996</v>
       </c>
@@ -578,7 +578,7 @@
         <v>2348.77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1997</v>
       </c>
@@ -592,7 +592,7 @@
         <v>2392.4979999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1998</v>
       </c>
@@ -606,7 +606,7 @@
         <v>2435.4690000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1999</v>
       </c>
@@ -620,7 +620,7 @@
         <v>2478.0619999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -634,7 +634,7 @@
         <v>2555.8360000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2001</v>
       </c>
@@ -648,7 +648,7 @@
         <v>2602.0620000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -662,7 +662,7 @@
         <v>2597.8240000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2003</v>
       </c>
@@ -676,7 +676,7 @@
         <v>2579.2890000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2004</v>
       </c>
@@ -690,7 +690,7 @@
         <v>2597.4459999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2005</v>
       </c>
@@ -704,7 +704,7 @@
         <v>2620.8989999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2006</v>
       </c>
@@ -718,7 +718,7 @@
         <v>2725.681</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -732,7 +732,7 @@
         <v>2809.8090000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2008</v>
       </c>
@@ -746,7 +746,7 @@
         <v>2829.1009999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2009</v>
       </c>
@@ -760,7 +760,7 @@
         <v>2669.4690000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2010</v>
       </c>
@@ -774,7 +774,7 @@
         <v>2777.4279999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2011</v>
       </c>
@@ -788,7 +788,7 @@
         <v>2888.2629999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2012</v>
       </c>
@@ -802,7 +802,7 @@
         <v>2906.116</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2013</v>
       </c>
@@ -816,7 +816,7 @@
         <v>2922.08</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2014</v>
       </c>
@@ -830,7 +830,7 @@
         <v>2986.5369999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -844,7 +844,7 @@
         <v>3023.6080000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2016</v>
       </c>
@@ -858,7 +858,7 @@
         <v>3088.3689999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2017</v>
       </c>
@@ -872,7 +872,7 @@
         <v>3180.5159999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -886,7 +886,7 @@
         <v>3212.4409999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -900,7 +900,7 @@
         <v>3247.9230000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2020</v>
       </c>
@@ -914,7 +914,7 @@
         <v>3111.5940000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2021</v>
       </c>
@@ -928,7 +928,7 @@
         <v>3208.81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -942,7 +942,7 @@
         <v>3269.1819999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2023</v>
       </c>
@@ -956,7 +956,7 @@
         <v>3269.2579999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2024</v>
       </c>
@@ -967,7 +967,7 @@
         <v>3269.11</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2025</v>
       </c>
@@ -978,30 +978,30 @@
         <v>3302.2629999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
     </row>
   </sheetData>
@@ -1014,22 +1014,22 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1037,22 +1037,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
